--- a/notebooks/notes.xlsx
+++ b/notebooks/notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessicacurley/Desktop/galvanize_dsi/capstones/Jeopardy_nlp/notebooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C234D1-2D24-9242-907C-174DFC344616}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A874D2C-7940-8F4D-8019-438115340D1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="460" windowWidth="28040" windowHeight="17440" xr2:uid="{5297B969-6212-EA40-ACF0-2478C497FFD7}"/>
+    <workbookView xWindow="19320" yWindow="3860" windowWidth="14280" windowHeight="15960" xr2:uid="{5297B969-6212-EA40-ACF0-2478C497FFD7}"/>
   </bookViews>
   <sheets>
     <sheet name="keep track" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>am_assignment_nlp.ipynb</t>
   </si>
@@ -68,16 +68,111 @@
   </si>
   <si>
     <t>https://scikit-learn.org/stable/modules/generated/sklearn.feature_extraction.text.CountVectorizer.html</t>
+  </si>
+  <si>
+    <t>Colormaps: https://matplotlib.org/tutorials/colors/colormaps.html</t>
+  </si>
+  <si>
+    <t>Supervised </t>
+  </si>
+  <si>
+    <t>For predicting high value vs. low value per question in regular tournament </t>
+  </si>
+  <si>
+    <t>Make column that combines question and answer</t>
+  </si>
+  <si>
+    <t>That column  = x</t>
+  </si>
+  <si>
+    <t>Make column of high, avg, low value</t>
+  </si>
+  <si>
+    <t>That column = y</t>
+  </si>
+  <si>
+    <t>Train test split on these </t>
+  </si>
+  <si>
+    <t>Fit transform a CountVectorizer on the x_train and y_train</t>
+  </si>
+  <si>
+    <t>Predicting high value vs. low value by tournament </t>
+  </si>
+  <si>
+    <t>Use the same question and answer combined column</t>
+  </si>
+  <si>
+    <t>Make column for reg, easy_special, hard_special depending on notes</t>
+  </si>
+  <si>
+    <t>Train test split on those columns</t>
+  </si>
+  <si>
+    <t>Fit transform a countvectorizer </t>
+  </si>
+  <si>
+    <t>Try different classifiers </t>
+  </si>
+  <si>
+    <t>Test by using </t>
+  </si>
+  <si>
+    <t>Unsupervised - classifying meta-categories using NMF to see the latent topics </t>
+  </si>
+  <si>
+    <t>To Do</t>
+  </si>
+  <si>
+    <t>Tournament class:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attribute </t>
+  </si>
+  <si>
+    <t>data class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subset of my data is tournamnet </t>
+  </si>
+  <si>
+    <t>data.regular on my train_test_split</t>
+  </si>
+  <si>
+    <t>data.tournament etc</t>
+  </si>
+  <si>
+    <t>jeopardydata = data.df</t>
+  </si>
+  <si>
+    <t xml:space="preserve">naïve bayes to classify the question to the values </t>
+  </si>
+  <si>
+    <t>classifier = cluster with knn</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -100,13 +195,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -419,24 +518,161 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAD3E849-7AE9-8E45-9316-282A2B564A0B}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0FDEF45-82B4-584D-99B8-D7ED4DA7397B}">
-  <dimension ref="A3:A20"/>
+  <dimension ref="A3:A28"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -485,7 +721,7 @@
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="A18" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -499,7 +735,15 @@
         <v>10</v>
       </c>
     </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A18" r:id="rId1" xr:uid="{47439E67-4FBE-9F46-A9D7-A69AF49BDA56}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/notebooks/notes.xlsx
+++ b/notebooks/notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessicacurley/Desktop/galvanize_dsi/capstones/Jeopardy_nlp/notebooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A874D2C-7940-8F4D-8019-438115340D1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB8DA52F-FE14-044E-9064-9776CF0F1474}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19320" yWindow="3860" windowWidth="14280" windowHeight="15960" xr2:uid="{5297B969-6212-EA40-ACF0-2478C497FFD7}"/>
+    <workbookView xWindow="13020" yWindow="460" windowWidth="17720" windowHeight="15960" xr2:uid="{5297B969-6212-EA40-ACF0-2478C497FFD7}"/>
   </bookViews>
   <sheets>
     <sheet name="keep track" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
   <si>
     <t>am_assignment_nlp.ipynb</t>
   </si>
@@ -149,14 +149,70 @@
   </si>
   <si>
     <t>classifier = cluster with knn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuesday </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wednesday  </t>
+  </si>
+  <si>
+    <t>Supervised learning: fix up my train_test_split function to be more adjustable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unsupervised learning: make a function that takes a subsample of the data and the given columns. </t>
+  </si>
+  <si>
+    <t>In the "question_difficulty_" make a new condition that defines them according to viewer assumptions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Make a function that breaks it up into special tournaments and regular tournaments </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MVP + </t>
+  </si>
+  <si>
+    <t>break it apart into regular, 'easy' tournaments and 'hard' tournaments in the 'episodes' class</t>
+  </si>
+  <si>
+    <t>EDA: make a wordcloud that combines "question and answer column.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EDA: word-count in "easy", "average" and "hard" questions and answers </t>
+  </si>
+  <si>
+    <t>Clean up my jupyter J2:M6notebooks into supervised and unsupervised models notebooks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a niave bayes pipeline function </t>
+  </si>
+  <si>
+    <t xml:space="preserve">look at Spacy, word_to_vec, doc_to_vec featurization </t>
+  </si>
+  <si>
+    <t>write an sklearn NMF pipeline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prepare for my interview </t>
+  </si>
+  <si>
+    <t xml:space="preserve">decide how I want to test how good the model is </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -197,12 +253,29 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -518,151 +591,848 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAD3E849-7AE9-8E45-9316-282A2B564A0B}">
-  <dimension ref="A1:A46"/>
+  <dimension ref="A1:R46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8:M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="13" max="13" width="16.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="O1" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+    </row>
+    <row r="3" spans="1:18" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+    </row>
+    <row r="4" spans="1:18" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+    </row>
+    <row r="5" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+    </row>
+    <row r="6" spans="1:18" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+    </row>
+    <row r="7" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+    </row>
+    <row r="8" spans="1:18" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+    </row>
+    <row r="9" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+    </row>
+    <row r="10" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+    </row>
+    <row r="11" spans="1:18" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+    </row>
+    <row r="14" spans="1:18" ht="102" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+    </row>
+    <row r="16" spans="1:18" ht="119" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="1:18" ht="153" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+    </row>
+    <row r="18" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+    </row>
+    <row r="19" spans="1:18" ht="68" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="1:18" ht="85" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+    </row>
+    <row r="21" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+    </row>
+    <row r="22" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+    </row>
+    <row r="25" spans="1:18" ht="170" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+    </row>
+    <row r="29" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+    </row>
+    <row r="30" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+      <c r="A30" s="7" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+    </row>
+    <row r="31" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="7" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+    </row>
+    <row r="34" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+    </row>
+    <row r="35" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="A35" s="7" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+    </row>
+    <row r="36" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+      <c r="A36" s="7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+    </row>
+    <row r="37" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="A37" s="7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+    </row>
+    <row r="39" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="A39" s="7" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>37</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="47">
+    <mergeCell ref="O19:R19"/>
+    <mergeCell ref="O20:R20"/>
+    <mergeCell ref="O21:R21"/>
+    <mergeCell ref="O22:R22"/>
+    <mergeCell ref="O23:R23"/>
+    <mergeCell ref="O24:R24"/>
+    <mergeCell ref="O13:R13"/>
+    <mergeCell ref="O14:R14"/>
+    <mergeCell ref="O15:R15"/>
+    <mergeCell ref="O16:R16"/>
+    <mergeCell ref="O17:R17"/>
+    <mergeCell ref="O18:R18"/>
+    <mergeCell ref="O7:R7"/>
+    <mergeCell ref="O8:R8"/>
+    <mergeCell ref="O9:R9"/>
+    <mergeCell ref="O10:R10"/>
+    <mergeCell ref="O11:R11"/>
+    <mergeCell ref="O12:R12"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="O3:R3"/>
+    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="O5:R5"/>
+    <mergeCell ref="O6:R6"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="J17:M17"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="J4:M4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/notebooks/notes.xlsx
+++ b/notebooks/notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessicacurley/Desktop/galvanize_dsi/capstones/Jeopardy_nlp/notebooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB8DA52F-FE14-044E-9064-9776CF0F1474}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED408BBD-FF15-0C49-A143-5DBB3EEB52EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13020" yWindow="460" windowWidth="17720" windowHeight="15960" xr2:uid="{5297B969-6212-EA40-ACF0-2478C497FFD7}"/>
+    <workbookView xWindow="11780" yWindow="460" windowWidth="17980" windowHeight="15960" xr2:uid="{5297B969-6212-EA40-ACF0-2478C497FFD7}"/>
   </bookViews>
   <sheets>
     <sheet name="keep track" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="73">
   <si>
     <t>am_assignment_nlp.ipynb</t>
   </si>
@@ -160,15 +160,6 @@
     <t>Supervised learning: fix up my train_test_split function to be more adjustable</t>
   </si>
   <si>
-    <t xml:space="preserve">unsupervised learning: make a function that takes a subsample of the data and the given columns. </t>
-  </si>
-  <si>
-    <t>In the "question_difficulty_" make a new condition that defines them according to viewer assumptions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Make a function that breaks it up into special tournaments and regular tournaments </t>
-  </si>
-  <si>
     <t xml:space="preserve">MVP + </t>
   </si>
   <si>
@@ -178,35 +169,263 @@
     <t>EDA: make a wordcloud that combines "question and answer column.</t>
   </si>
   <si>
-    <t xml:space="preserve">EDA: word-count in "easy", "average" and "hard" questions and answers </t>
-  </si>
-  <si>
-    <t>Clean up my jupyter J2:M6notebooks into supervised and unsupervised models notebooks</t>
-  </si>
-  <si>
     <t xml:space="preserve">Write a niave bayes pipeline function </t>
   </si>
   <si>
     <t xml:space="preserve">look at Spacy, word_to_vec, doc_to_vec featurization </t>
   </si>
   <si>
-    <t>write an sklearn NMF pipeline</t>
-  </si>
-  <si>
     <t xml:space="preserve">prepare for my interview </t>
   </si>
   <si>
     <t xml:space="preserve">decide how I want to test how good the model is </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">Make a function that breaks it up into special tournaments and regular tournaments </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Assigned variables to the regular ands special tournaments, and made a function that gets a sub_df for building and troubleshooting a model</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">Clean up my jupyter notebooks into supervised and unsupervised models notebooks, and clean up the cleaning one </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> All organized</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>unsupervised learning: make a function that takes a subsample of the data and the given columns.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">The function is called </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>make_sub_df(df, frac ,state)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">Define: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">question, answer, clue describes the instance of the answer given and the question responded with, </t>
+    </r>
+  </si>
+  <si>
+    <t>^^ write these as functions and add these eda functions to the eda script</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">write an sklearn NMF pipeline: change the indices to jeopardy categories </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Make sure the function and outcome makes sese. Ask where to go from here</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>EDA: word-count in "easy", "average" and "hard" questions and answers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Made a few functions but will have to make a</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">djustments on the question difficulty and how I got the wordcount. Need to also change it to "clue difficulty" </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Start my ReadMe: Outline, EDA, description, definitions of question/answer, how I chose the "difficulty of a question", why I combined question/answer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">check on my nmf matrix and ask what makes sense to do now. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fix up the train_test_split function to be more adjustable </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Define: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">question, answer, clue describes the instance of the answer given and the question responded with, </t>
+    </r>
+  </si>
+  <si>
+    <t>write new conditions for "viewer assumption" difficulty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">write functions for the eda graphs, clean up the graphs, and save to folder </t>
+  </si>
+  <si>
+    <t>how do I show these clusters?</t>
+  </si>
+  <si>
+    <t>pyLDAvis</t>
+  </si>
+  <si>
+    <t>PCA</t>
+  </si>
+  <si>
+    <t>kmeans</t>
+  </si>
+  <si>
+    <t>SVD / LSA</t>
+  </si>
+  <si>
+    <t>Latent Dirchlet allocation</t>
+  </si>
+  <si>
+    <t>genism</t>
+  </si>
+  <si>
+    <t>spaCy</t>
+  </si>
+  <si>
+    <t>NLTK</t>
+  </si>
+  <si>
+    <t>sklearn</t>
+  </si>
+  <si>
+    <t>word2vec</t>
+  </si>
+  <si>
+    <t>doc2vec</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -233,6 +452,60 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -253,27 +526,54 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="19">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -593,13 +893,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAD3E849-7AE9-8E45-9316-282A2B564A0B}">
   <dimension ref="A1:R46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8:M8"/>
+    <sheetView tabSelected="1" topLeftCell="C5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10:M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="13" max="13" width="16.1640625" customWidth="1"/>
+    <col min="14" max="14" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="17" x14ac:dyDescent="0.2">
@@ -609,7 +910,7 @@
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
       <c r="D1" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
@@ -626,32 +927,35 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
       <c r="D2" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
-      <c r="J2" s="5" t="s">
-        <v>52</v>
+      <c r="J2" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-    </row>
-    <row r="3" spans="1:18" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N2" s="7"/>
+      <c r="O2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+    </row>
+    <row r="3" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -662,15 +966,18 @@
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="5" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
     </row>
     <row r="4" spans="1:18" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
@@ -678,43 +985,47 @@
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
+      <c r="D4" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>67</v>
+      </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
-      <c r="J4" s="5" t="s">
-        <v>43</v>
+      <c r="J4" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
     </row>
     <row r="5" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
+      <c r="D5" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>68</v>
+      </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
-      <c r="J5" s="5" t="s">
-        <v>42</v>
-      </c>
+      <c r="J5" s="13"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
+      <c r="N5" s="7"/>
     </row>
     <row r="6" spans="1:18" ht="56" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
@@ -722,22 +1033,27 @@
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
+      <c r="D6" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
-      <c r="J6" s="5" t="s">
-        <v>48</v>
+      <c r="J6" s="10" t="s">
+        <v>49</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
     </row>
     <row r="7" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
@@ -745,22 +1061,29 @@
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
+      <c r="D7" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>70</v>
+      </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
-      <c r="J7" s="5" t="s">
-        <v>51</v>
+      <c r="J7" s="10" t="s">
+        <v>53</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
     </row>
     <row r="8" spans="1:18" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
@@ -768,22 +1091,27 @@
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+      <c r="D8" s="7" t="s">
+        <v>66</v>
+      </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
-      <c r="J8" s="5" t="s">
-        <v>53</v>
+      <c r="J8" s="13" t="s">
+        <v>47</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
     </row>
     <row r="9" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
@@ -791,45 +1119,53 @@
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
+      <c r="D9" s="7" t="s">
+        <v>71</v>
+      </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
-      <c r="J9" s="5" t="s">
-        <v>46</v>
+      <c r="J9" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-    </row>
-    <row r="10" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N9" s="7"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+    </row>
+    <row r="10" spans="1:18" ht="74" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
+      <c r="D10" s="7" t="s">
+        <v>72</v>
+      </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
-      <c r="J10" s="5" t="s">
-        <v>47</v>
+      <c r="J10" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
     </row>
     <row r="11" spans="1:18" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
@@ -843,18 +1179,21 @@
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
-      <c r="J11" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="J11" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+    </row>
+    <row r="12" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -864,18 +1203,20 @@
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
-      <c r="J12" s="5" t="s">
-        <v>40</v>
+      <c r="J12" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O12" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+    </row>
+    <row r="13" spans="1:18" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -885,16 +1226,18 @@
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
-      <c r="J13" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
+      <c r="J13" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="O13" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
     </row>
     <row r="14" spans="1:18" ht="102" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
@@ -908,6 +1251,12 @@
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
+      <c r="J14" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
@@ -944,7 +1293,9 @@
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
-      <c r="J16" s="5"/>
+      <c r="J16" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
@@ -1400,7 +1751,6 @@
     <mergeCell ref="O7:R7"/>
     <mergeCell ref="O8:R8"/>
     <mergeCell ref="O9:R9"/>
-    <mergeCell ref="O10:R10"/>
     <mergeCell ref="O11:R11"/>
     <mergeCell ref="O12:R12"/>
     <mergeCell ref="J20:M20"/>
@@ -1411,7 +1761,7 @@
     <mergeCell ref="O2:R2"/>
     <mergeCell ref="O3:R3"/>
     <mergeCell ref="O4:R4"/>
-    <mergeCell ref="O5:R5"/>
+    <mergeCell ref="O10:R10"/>
     <mergeCell ref="O6:R6"/>
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="J15:M15"/>
@@ -1420,18 +1770,19 @@
     <mergeCell ref="J18:M18"/>
     <mergeCell ref="J19:M19"/>
     <mergeCell ref="J2:M2"/>
-    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="J14:M14"/>
     <mergeCell ref="J8:M8"/>
     <mergeCell ref="J9:M9"/>
     <mergeCell ref="J10:M10"/>
-    <mergeCell ref="J13:M13"/>
     <mergeCell ref="D1:G1"/>
-    <mergeCell ref="J12:M12"/>
     <mergeCell ref="J3:M3"/>
     <mergeCell ref="J5:M5"/>
     <mergeCell ref="J6:M6"/>
     <mergeCell ref="J7:M7"/>
     <mergeCell ref="J4:M4"/>
+    <mergeCell ref="J11:M11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/notebooks/notes.xlsx
+++ b/notebooks/notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessicacurley/Desktop/galvanize_dsi/capstones/Jeopardy_nlp/notebooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED408BBD-FF15-0C49-A143-5DBB3EEB52EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D21047-712E-1943-8B21-F311D9735C56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11780" yWindow="460" windowWidth="17980" windowHeight="15960" xr2:uid="{5297B969-6212-EA40-ACF0-2478C497FFD7}"/>
+    <workbookView xWindow="14760" yWindow="460" windowWidth="19020" windowHeight="18820" xr2:uid="{5297B969-6212-EA40-ACF0-2478C497FFD7}"/>
   </bookViews>
   <sheets>
     <sheet name="keep track" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="92">
   <si>
     <t>am_assignment_nlp.ipynb</t>
   </si>
@@ -351,9 +351,6 @@
     <t xml:space="preserve">check on my nmf matrix and ask what makes sense to do now. </t>
   </si>
   <si>
-    <t xml:space="preserve">fix up the train_test_split function to be more adjustable </t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Define: </t>
     </r>
@@ -372,9 +369,6 @@
     <t>write new conditions for "viewer assumption" difficulty</t>
   </si>
   <si>
-    <t xml:space="preserve">write functions for the eda graphs, clean up the graphs, and save to folder </t>
-  </si>
-  <si>
     <t>how do I show these clusters?</t>
   </si>
   <si>
@@ -409,6 +403,85 @@
   </si>
   <si>
     <t>doc2vec</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">write functions for the eda graphs, clean up the graphs, and save to folder </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Need to add the violin plot</t>
+    </r>
+  </si>
+  <si>
+    <t>describe/ image of my text pre-processing and images of the tools I used</t>
+  </si>
+  <si>
+    <t>toctovec notes:</t>
+  </si>
+  <si>
+    <t>the doc2vec is best  on large corpuses, it thinks about the words that are near any given word we're considering. It does a neighborhood process.</t>
+  </si>
+  <si>
+    <t>by thinking of the neighborhood around any given word, we wing up with a many-to-many term mapping</t>
+  </si>
+  <si>
+    <t>each term in the input vector maps to multiple terms in the output vector, every term in the output can be mapped to by multiple terms in the input</t>
+  </si>
+  <si>
+    <t>the cutoff deals with the total amount of terms we want to have in our resulting reduced dimensionality vector</t>
+  </si>
+  <si>
+    <t>tfidf is 1-1 mapping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">doc2vec is a covariant probability where we look at one variable occuring in the context of the other </t>
+  </si>
+  <si>
+    <t>no predictible vocabulary and a huge range of synonyms or interpretations</t>
+  </si>
+  <si>
+    <t>what do I do about text featurization: stopwords, keeping capitalization, etc</t>
+  </si>
+  <si>
+    <t>https://medium.com/@pollockcolin/jeopardy-question-difficulty-1bba47770bc6</t>
+  </si>
+  <si>
+    <t>work on stopwords, number of features, change stemming and lemmatizing, does lowercasing make sense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Think about how I want to present it: wordcloud and sizes of most important </t>
+  </si>
+  <si>
+    <t xml:space="preserve">make a function that creates wordclouds from the top words so that I have that ready as a visual when I present, no matter my model </t>
+  </si>
+  <si>
+    <t xml:space="preserve">make a function that loops through different featurization and prints out the models and reconstruction errors </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The goal of my project is to help jeopardy viewers study the most importnat topics by identifing the most common words that appear in jeopardy questions and answers within the greater jeopardy clue categories. I'm going to use some unsupervised learning to solve that problem. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Its very easy to identify the most common words, but it isn't so easy to idneitfy the words within each category, or even to quantify the different metacategories that describe each jeopardy category </t>
+  </si>
+  <si>
+    <t xml:space="preserve">How I came up with stopwords. Did I use capitalzation, why did I pick n clusters, why did I merge the two categories, describe what metadata is and what that could look like </t>
+  </si>
+  <si>
+    <t xml:space="preserve">do outline </t>
+  </si>
+  <si>
+    <t xml:space="preserve">update readme when I'm stuck on code </t>
   </si>
 </sst>
 </file>
@@ -891,10 +964,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAD3E849-7AE9-8E45-9316-282A2B564A0B}">
-  <dimension ref="A1:R46"/>
+  <dimension ref="A1:X46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10:M10"/>
+    <sheetView tabSelected="1" topLeftCell="O9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X14" sqref="X14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -903,7 +976,7 @@
     <col min="14" max="14" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>28</v>
       </c>
@@ -927,7 +1000,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
@@ -954,8 +1027,11 @@
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
-    </row>
-    <row r="3" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -973,23 +1049,23 @@
       <c r="M3" s="5"/>
       <c r="N3" s="7"/>
       <c r="O3" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P3" s="18"/>
       <c r="Q3" s="18"/>
       <c r="R3" s="18"/>
     </row>
-    <row r="4" spans="1:18" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -1002,20 +1078,22 @@
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
       <c r="N4" s="7"/>
-      <c r="O4" s="5"/>
+      <c r="O4" s="5" t="s">
+        <v>72</v>
+      </c>
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
       <c r="R4" s="5"/>
     </row>
-    <row r="5" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -1027,17 +1105,17 @@
       <c r="M5" s="5"/>
       <c r="N5" s="7"/>
     </row>
-    <row r="6" spans="1:18" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" ht="56" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -1055,17 +1133,17 @@
       <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
     </row>
-    <row r="7" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -1084,15 +1162,18 @@
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
-    </row>
-    <row r="8" spans="1:18" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
@@ -1106,21 +1187,24 @@
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
       <c r="N8" s="7"/>
-      <c r="O8" s="5" t="s">
-        <v>61</v>
+      <c r="O8" s="9" t="s">
+        <v>59</v>
       </c>
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
-    </row>
-    <row r="9" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -1134,19 +1218,24 @@
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
       <c r="N9" s="7"/>
-      <c r="O9" s="5"/>
+      <c r="O9" s="5" t="s">
+        <v>81</v>
+      </c>
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
       <c r="R9" s="5"/>
-    </row>
-    <row r="10" spans="1:18" ht="74" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="74" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
@@ -1160,14 +1249,17 @@
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
       <c r="N10" s="7"/>
-      <c r="O10" s="5" t="s">
-        <v>59</v>
+      <c r="O10" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
-    </row>
-    <row r="11" spans="1:18" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>19</v>
       </c>
@@ -1186,14 +1278,14 @@
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
       <c r="N11" s="7"/>
-      <c r="O11" s="5" t="s">
-        <v>60</v>
+      <c r="O11" s="10" t="s">
+        <v>71</v>
       </c>
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
     </row>
-    <row r="12" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -1216,7 +1308,7 @@
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
     </row>
-    <row r="13" spans="1:18" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -1232,14 +1324,12 @@
       <c r="K13" s="16"/>
       <c r="L13" s="16"/>
       <c r="M13" s="16"/>
-      <c r="O13" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-    </row>
-    <row r="14" spans="1:18" ht="102" x14ac:dyDescent="0.2">
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+    </row>
+    <row r="14" spans="1:24" ht="102" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>20</v>
       </c>
@@ -1257,12 +1347,17 @@
       <c r="K14" s="16"/>
       <c r="L14" s="16"/>
       <c r="M14" s="16"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="T14" s="17"/>
+      <c r="U14" s="17"/>
+      <c r="V14" s="17"/>
+      <c r="X14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -1276,12 +1371,17 @@
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-    </row>
-    <row r="16" spans="1:18" ht="119" x14ac:dyDescent="0.2">
+      <c r="S15" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="T15" s="17"/>
+      <c r="U15" s="17"/>
+      <c r="V15" s="17"/>
+      <c r="X15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="119" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>21</v>
       </c>
@@ -1303,8 +1403,14 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="1:18" ht="153" x14ac:dyDescent="0.2">
+      <c r="S16" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+    </row>
+    <row r="17" spans="1:18" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>22</v>
       </c>
@@ -1325,7 +1431,7 @@
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
     </row>
-    <row r="18" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" ht="112" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>17</v>
       </c>
@@ -1341,12 +1447,8 @@
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-    </row>
-    <row r="19" spans="1:18" ht="68" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:18" ht="110" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>23</v>
       </c>
@@ -1362,10 +1464,6 @@
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
     </row>
     <row r="20" spans="1:18" ht="85" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
@@ -1383,10 +1481,6 @@
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
     </row>
     <row r="21" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
@@ -1735,19 +1829,17 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="47">
-    <mergeCell ref="O19:R19"/>
-    <mergeCell ref="O20:R20"/>
+  <mergeCells count="45">
+    <mergeCell ref="O13:R13"/>
+    <mergeCell ref="O16:R16"/>
+    <mergeCell ref="O17:R17"/>
+    <mergeCell ref="S16:V16"/>
     <mergeCell ref="O21:R21"/>
     <mergeCell ref="O22:R22"/>
     <mergeCell ref="O23:R23"/>
     <mergeCell ref="O24:R24"/>
-    <mergeCell ref="O13:R13"/>
-    <mergeCell ref="O14:R14"/>
-    <mergeCell ref="O15:R15"/>
-    <mergeCell ref="O16:R16"/>
-    <mergeCell ref="O17:R17"/>
-    <mergeCell ref="O18:R18"/>
+    <mergeCell ref="S15:V15"/>
+    <mergeCell ref="S14:V14"/>
     <mergeCell ref="O7:R7"/>
     <mergeCell ref="O8:R8"/>
     <mergeCell ref="O9:R9"/>
@@ -1790,10 +1882,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0FDEF45-82B4-584D-99B8-D7ED4DA7397B}">
-  <dimension ref="A3:A28"/>
+  <dimension ref="A3:E28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView topLeftCell="A3" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1801,42 +1893,70 @@
     <col min="1" max="1" width="73.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="E5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="E6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="E8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="E9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="E11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>7</v>
       </c>

--- a/notebooks/notes.xlsx
+++ b/notebooks/notes.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessicacurley/Desktop/galvanize_dsi/capstones/Jeopardy_nlp/notebooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D21047-712E-1943-8B21-F311D9735C56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99AF3EBE-A39A-E043-BCFC-2BCEF6E10FE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14760" yWindow="460" windowWidth="19020" windowHeight="18820" xr2:uid="{5297B969-6212-EA40-ACF0-2478C497FFD7}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18820" xr2:uid="{5297B969-6212-EA40-ACF0-2478C497FFD7}"/>
   </bookViews>
   <sheets>
     <sheet name="keep track" sheetId="1" r:id="rId1"/>
     <sheet name="Resources" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -460,12 +461,6 @@
     <t>work on stopwords, number of features, change stemming and lemmatizing, does lowercasing make sense</t>
   </si>
   <si>
-    <t xml:space="preserve">Think about how I want to present it: wordcloud and sizes of most important </t>
-  </si>
-  <si>
-    <t xml:space="preserve">make a function that creates wordclouds from the top words so that I have that ready as a visual when I present, no matter my model </t>
-  </si>
-  <si>
     <t xml:space="preserve">make a function that loops through different featurization and prints out the models and reconstruction errors </t>
   </si>
   <si>
@@ -482,6 +477,23 @@
   </si>
   <si>
     <t xml:space="preserve">update readme when I'm stuck on code </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    
+    # topics = ['latent_topic_{}'.format(i) for i in range(n_topics)]
+    # idx = df.index
+    # vocab = vectorizer.vocabulary_.keys()
+    # weights = nmf.components_ #array 
+    # W = nmf.transform(tfidf)
+    # H = nmf.components_
+    # W = pd.DataFrame(W, index = idx, columns = topics)
+    # H = pd.DataFrame(H, index = topics, columns = col)
+    # W,H = (np.around(x, 2) for x in (W, H))
+    reconstruction_error = nmf.reconstruction_err_
+    # print (W.head(30), '\n\n', H.head(n_topics))</t>
+  </si>
+  <si>
+    <t>write a wordcloud function for my topics and weights and size with a factor x weights</t>
   </si>
 </sst>
 </file>
@@ -601,7 +613,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
@@ -648,6 +660,15 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -966,14 +987,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAD3E849-7AE9-8E45-9316-282A2B564A0B}">
   <dimension ref="A1:X46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X14" sqref="X14"/>
+    <sheetView tabSelected="1" topLeftCell="M7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="13" max="13" width="16.1640625" customWidth="1"/>
     <col min="14" max="14" width="15.6640625" customWidth="1"/>
+    <col min="19" max="19" width="64.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -1027,9 +1049,12 @@
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
-      <c r="S2" t="s">
+      <c r="S2" s="19" t="s">
         <v>82</v>
       </c>
+      <c r="T2" s="19"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
     </row>
     <row r="3" spans="1:24" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
@@ -1054,6 +1079,10 @@
       <c r="P3" s="18"/>
       <c r="Q3" s="18"/>
       <c r="R3" s="18"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
     </row>
     <row r="4" spans="1:24" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
@@ -1084,6 +1113,10 @@
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
       <c r="R4" s="5"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
     </row>
     <row r="5" spans="1:24" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
@@ -1104,6 +1137,10 @@
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
       <c r="N5" s="7"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
     </row>
     <row r="6" spans="1:24" ht="56" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
@@ -1132,6 +1169,12 @@
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
+      <c r="S6" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="T6" s="19"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
     </row>
     <row r="7" spans="1:24" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
@@ -1162,9 +1205,12 @@
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
-      <c r="S7" t="s">
+      <c r="S7" s="19" t="s">
         <v>83</v>
       </c>
+      <c r="T7" s="19"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
     </row>
     <row r="8" spans="1:24" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
@@ -1193,9 +1239,12 @@
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
-      <c r="S8" t="s">
-        <v>85</v>
-      </c>
+      <c r="S8" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="T8" s="19"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
     </row>
     <row r="9" spans="1:24" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
@@ -1224,9 +1273,8 @@
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
       <c r="R9" s="5"/>
-      <c r="S9" t="s">
-        <v>84</v>
-      </c>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
     </row>
     <row r="10" spans="1:24" ht="74" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
@@ -1255,9 +1303,8 @@
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
-      <c r="S10" t="s">
-        <v>86</v>
-      </c>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
     </row>
     <row r="11" spans="1:24" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
@@ -1284,6 +1331,10 @@
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
     </row>
     <row r="12" spans="1:24" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
@@ -1307,6 +1358,10 @@
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
     </row>
     <row r="13" spans="1:24" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
@@ -1328,6 +1383,10 @@
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
     </row>
     <row r="14" spans="1:24" ht="102" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
@@ -1348,13 +1407,13 @@
       <c r="L14" s="16"/>
       <c r="M14" s="16"/>
       <c r="S14" s="17" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="T14" s="17"/>
       <c r="U14" s="17"/>
       <c r="V14" s="17"/>
       <c r="X14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="90" customHeight="1" x14ac:dyDescent="0.2">
@@ -1372,16 +1431,16 @@
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
       <c r="S15" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="T15" s="17"/>
       <c r="U15" s="17"/>
       <c r="V15" s="17"/>
       <c r="X15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" ht="119" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="119" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>21</v>
       </c>
@@ -1404,7 +1463,7 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="T16" s="5"/>
       <c r="U16" s="5"/>
@@ -1829,10 +1888,14 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="45">
+  <mergeCells count="49">
     <mergeCell ref="O13:R13"/>
     <mergeCell ref="O16:R16"/>
     <mergeCell ref="O17:R17"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="S8:T8"/>
     <mergeCell ref="S16:V16"/>
     <mergeCell ref="O21:R21"/>
     <mergeCell ref="O22:R22"/>
@@ -1987,4 +2050,27 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{184E43A1-D413-4F4E-9C63-9B17613F616B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="86.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="255" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/notebooks/notes.xlsx
+++ b/notebooks/notes.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessicacurley/Desktop/galvanize_dsi/capstones/Jeopardy_nlp/notebooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99AF3EBE-A39A-E043-BCFC-2BCEF6E10FE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C8112F-6733-6849-8C31-E53EE7568F62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18820" xr2:uid="{5297B969-6212-EA40-ACF0-2478C497FFD7}"/>
+    <workbookView xWindow="60" yWindow="7360" windowWidth="33600" windowHeight="18820" activeTab="1" xr2:uid="{5297B969-6212-EA40-ACF0-2478C497FFD7}"/>
   </bookViews>
   <sheets>
     <sheet name="keep track" sheetId="1" r:id="rId1"/>
-    <sheet name="Resources" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
+    <sheet name="Resources" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="93">
   <si>
     <t>am_assignment_nlp.ipynb</t>
   </si>
@@ -495,12 +496,15 @@
   <si>
     <t>write a wordcloud function for my topics and weights and size with a factor x weights</t>
   </si>
+  <si>
+    <t>rename "category' to 'j-category'</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -591,6 +595,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -613,7 +623,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
@@ -670,6 +680,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -987,8 +998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAD3E849-7AE9-8E45-9316-282A2B564A0B}">
   <dimension ref="A1:X46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+    <sheetView topLeftCell="M3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6:T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1137,7 +1148,9 @@
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
       <c r="N5" s="7"/>
-      <c r="S5" s="20"/>
+      <c r="S5" s="20" t="s">
+        <v>92</v>
+      </c>
       <c r="T5" s="20"/>
       <c r="U5" s="7"/>
       <c r="V5" s="7"/>
@@ -1944,6 +1957,38 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{595D5075-C4DA-F147-8D2C-82ACD2EE2203}">
+  <dimension ref="A5:A8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A2:A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="81" customWidth="1"/>
+    <col min="2" max="2" width="23.5" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A5" s="22"/>
+    </row>
+    <row r="6" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A6" s="22"/>
+    </row>
+    <row r="7" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A7" s="22"/>
+    </row>
+    <row r="8" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A8" s="22"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0FDEF45-82B4-584D-99B8-D7ED4DA7397B}">
   <dimension ref="A3:E28"/>
   <sheetViews>
@@ -2052,7 +2097,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{184E43A1-D413-4F4E-9C63-9B17613F616B}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/notebooks/notes.xlsx
+++ b/notebooks/notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessicacurley/Desktop/galvanize_dsi/capstones/Jeopardy_nlp/notebooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C8112F-6733-6849-8C31-E53EE7568F62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5653DAE-2FB1-E748-9488-49D98060AC69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="7360" windowWidth="33600" windowHeight="18820" activeTab="1" xr2:uid="{5297B969-6212-EA40-ACF0-2478C497FFD7}"/>
+    <workbookView xWindow="100" yWindow="460" windowWidth="33600" windowHeight="18820" activeTab="1" xr2:uid="{5297B969-6212-EA40-ACF0-2478C497FFD7}"/>
   </bookViews>
   <sheets>
     <sheet name="keep track" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="94">
   <si>
     <t>am_assignment_nlp.ipynb</t>
   </si>
@@ -498,6 +498,20 @@
   </si>
   <si>
     <t>rename "category' to 'j-category'</t>
+  </si>
+  <si>
+    <t>def plot_ks(n_topics, nmf):
+    nmf = NMF(n_components=n_topics, random_state=43,  
+                    alpha=0.1, l1_ratio=0.5)
+    nmf.fit_transform(tf)
+    recon_err = nmf.reconstruction_err_
+    error = []
+    for i in range(1, n_topics):
+        error.append(nmf.reconstruction_err_)
+    plt.plot(range(1,n_topics), error)
+    plt.xlabel('k')
+    plt.ylabel('Reconstruction Error')
+    plt.show();</t>
   </si>
 </sst>
 </file>
@@ -1958,10 +1972,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{595D5075-C4DA-F147-8D2C-82ACD2EE2203}">
-  <dimension ref="A5:A8"/>
+  <dimension ref="A2:A8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A2:A8"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1971,6 +1985,11 @@
     <col min="3" max="3" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="1:1" ht="409" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
     <row r="5" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="22"/>
     </row>

--- a/notebooks/notes.xlsx
+++ b/notebooks/notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessicacurley/Desktop/galvanize_dsi/capstones/Jeopardy_nlp/notebooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5653DAE-2FB1-E748-9488-49D98060AC69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF8ED707-9611-024A-983F-7DD5F224F49B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="100" yWindow="460" windowWidth="33600" windowHeight="18820" activeTab="1" xr2:uid="{5297B969-6212-EA40-ACF0-2478C497FFD7}"/>
+    <workbookView xWindow="20" yWindow="480" windowWidth="33600" windowHeight="18820" activeTab="1" xr2:uid="{5297B969-6212-EA40-ACF0-2478C497FFD7}"/>
   </bookViews>
   <sheets>
     <sheet name="keep track" sheetId="1" r:id="rId1"/>
@@ -1975,7 +1975,7 @@
   <dimension ref="A2:A8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
